--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterMinutes_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
   <si>
     <t>ModuleName</t>
   </si>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="86">
   <si>
     <t>ModuleName</t>
   </si>
@@ -171,9 +171,6 @@
     <t>NotifyTemplate_Msg</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_CTAfterMinutes</t>
-  </si>
-  <si>
     <t>RelatedModuleText</t>
   </si>
   <si>
@@ -234,30 +231,9 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>ET146</t>
-  </si>
-  <si>
-    <t>ET147</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:52:50 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:58:15 PM</t>
-  </si>
-  <si>
-    <t>ET161</t>
-  </si>
-  <si>
     <t>wf_ET_ETRS_Notifications</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ET_ETRS_Notify </t>
   </si>
   <si>
@@ -276,36 +252,6 @@
     <t>05-23-2024 05:00:00 PM</t>
   </si>
   <si>
-    <t>ET313</t>
-  </si>
-  <si>
-    <t>ET315</t>
-  </si>
-  <si>
-    <t>ET316</t>
-  </si>
-  <si>
-    <t>ET317</t>
-  </si>
-  <si>
-    <t>ET320</t>
-  </si>
-  <si>
-    <t>ET321</t>
-  </si>
-  <si>
-    <t>ET322</t>
-  </si>
-  <si>
-    <t>ET323</t>
-  </si>
-  <si>
-    <t>ET324</t>
-  </si>
-  <si>
-    <t>ET325</t>
-  </si>
-  <si>
     <t>ET326</t>
   </si>
   <si>
@@ -313,6 +259,27 @@
   </si>
   <si>
     <t>ET328</t>
+  </si>
+  <si>
+    <t>ET_CTAfterMinutes</t>
+  </si>
+  <si>
+    <t>22-07-2024</t>
+  </si>
+  <si>
+    <t>25-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2728</t>
+  </si>
+  <si>
+    <t>ET2732</t>
+  </si>
+  <si>
+    <t>ET2733</t>
+  </si>
+  <si>
+    <t>ET2734</t>
   </si>
 </sst>
 </file>
@@ -658,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,7 +759,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -800,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -827,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -836,10 +803,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -854,7 +821,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>35</v>
@@ -866,16 +833,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>44</v>
@@ -887,13 +854,13 @@
         <v>47</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s" s="1">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="1">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,7 +999,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -1040,7 +1007,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1052,22 +1019,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1076,16 +1043,16 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1094,10 +1061,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1106,16 +1073,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1126,10 +1093,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1114,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,7 +1225,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="29" x14ac:dyDescent="0.35">
@@ -1266,7 +1233,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1278,22 +1245,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1302,16 +1269,16 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1320,10 +1287,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1332,16 +1299,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1352,10 +1319,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1371,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1482,7 +1449,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="29" x14ac:dyDescent="0.35">
@@ -1490,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1502,22 +1469,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1526,16 +1493,16 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1544,10 +1511,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -1556,16 +1523,16 @@
         <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1576,10 +1543,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterMinutes_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>ModuleName</t>
   </si>
@@ -273,13 +273,31 @@
     <t>ET2728</t>
   </si>
   <si>
-    <t>ET2732</t>
-  </si>
-  <si>
-    <t>ET2733</t>
-  </si>
-  <si>
-    <t>ET2734</t>
+    <t>ET2735</t>
+  </si>
+  <si>
+    <t>ET2736</t>
+  </si>
+  <si>
+    <t>ET2737</t>
+  </si>
+  <si>
+    <t>29-07-2024</t>
+  </si>
+  <si>
+    <t>29-07-2024 12:09:03 PM</t>
+  </si>
+  <si>
+    <t>ET2873</t>
+  </si>
+  <si>
+    <t>29-07-2024 12:15:52 PM</t>
+  </si>
+  <si>
+    <t>ET2874</t>
+  </si>
+  <si>
+    <t>ET2875</t>
   </si>
 </sst>
 </file>
@@ -794,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -803,7 +821,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s" s="1">
         <v>68</v>
@@ -857,7 +875,7 @@
         <v>71</v>
       </c>
       <c r="AG2" t="s" s="1">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s" s="1">
         <v>73</v>
@@ -1034,7 +1052,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1043,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>68</v>
@@ -1096,7 +1114,7 @@
         <v>70</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1278,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1269,7 +1287,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>68</v>
@@ -1322,7 +1340,7 @@
         <v>71</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1502,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1493,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>68</v>
@@ -1546,7 +1564,7 @@
         <v>71</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
